--- a/biology/Botanique/Nicotiana_obtusifolia/Nicotiana_obtusifolia.xlsx
+++ b/biology/Botanique/Nicotiana_obtusifolia/Nicotiana_obtusifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicotiana obtusifolia est une espèce de plante de la famille des Solanaceae, originaire du sud-ouest des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 30 à 90 cm de hauteur a des feuilles et tiges qui sont collantes au toucher. Les feuilles, plutôt larges, mesurent de 5 à 15 cm de longueur. Celles qui sont le plus bas sur la plante sont sagittées et portées par un court pétiole large, aplati, alors que celles situées plus haut sont sessiles et lancéolées[1].
-Appareil reproducteur
-La floraison a lieu de novembre à juin dans la partie ouest de son aire de répartition, et de mars à novembre dans la partie est.
-L'inflorescence est une grappe ramifiée, peu dense, de fleurs blanches. Chaque fleur mesure de 1,3 à 2 cm de longueur. Le calice est constitué de 5 sépales soudés jusqu'à plus de la moitié de leur hauteur. Les pétales sont soudés et ont une forme de trompette à l'ouverture très évasée. Au niveau de cette ouverture, le tube se termine par 5 lobes peu échancrés, à extrémité pointue. Il y a 5 étamines[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 30 à 90 cm de hauteur a des feuilles et tiges qui sont collantes au toucher. Les feuilles, plutôt larges, mesurent de 5 à 15 cm de longueur. Celles qui sont le plus bas sur la plante sont sagittées et portées par un court pétiole large, aplati, alors que celles situées plus haut sont sessiles et lancéolées.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante vit dans les zones sableuses et basses du sud-ouest américain.
-Son aire de répartition s'étend du sud de la Californie et du Nevada, jusqu'à l'ouest du Texas et du Nouveau-Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de novembre à juin dans la partie ouest de son aire de répartition, et de mars à novembre dans la partie est.
+L'inflorescence est une grappe ramifiée, peu dense, de fleurs blanches. Chaque fleur mesure de 1,3 à 2 cm de longueur. Le calice est constitué de 5 sépales soudés jusqu'à plus de la moitié de leur hauteur. Les pétales sont soudés et ont une forme de trompette à l'ouverture très évasée. Au niveau de cette ouverture, le tube se termine par 5 lobes peu échancrés, à extrémité pointue. Il y a 5 étamines.
 </t>
         </is>
       </c>
@@ -575,12 +595,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rôle écologique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicotiana obtusifolia est une plante toxique, mais son odeur forte et son mauvais goût dissuade généralement les herbivores de la brouter[1].
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante vit dans les zones sableuses et basses du sud-ouest américain.
+Son aire de répartition s'étend du sud de la Californie et du Nevada, jusqu'à l'ouest du Texas et du Nouveau-Mexique.
 </t>
         </is>
       </c>
@@ -606,12 +629,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Rôle écologique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicotiana obtusifolia est une plante toxique, mais son odeur forte et son mauvais goût dissuade généralement les herbivores de la brouter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nicotiana_obtusifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nicotiana_obtusifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Nicotiana obtusifolia et l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante fut fumée par les américains hispanisants et l'est toujours par les Amérindiens, notamment au cours de cérémonies traditionnelles[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante fut fumée par les américains hispanisants et l'est toujours par les Amérindiens, notamment au cours de cérémonies traditionnelles.
 </t>
         </is>
       </c>
